--- a/data-raw/lin.unbalanced.xlsx
+++ b/data-raw/lin.unbalanced.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8FF680-CFE2-468B-8765-99EB33969D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="300" windowWidth="11952" windowHeight="5592"/>
+    <workbookView xWindow="3580" yWindow="2540" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unbalanced" sheetId="1" r:id="rId1"/>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,9 +214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,26 +249,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,26 +284,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,16 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -560,7 +527,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -619,7 +586,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -678,7 +645,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -737,7 +704,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -796,7 +763,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -855,7 +822,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -914,7 +881,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -973,7 +940,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +999,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1058,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1117,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1176,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1208,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1240,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1272,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +1304,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1336,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1368,7 @@
         <v>6890</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +1400,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1432,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1464,7 @@
         <v>6137</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1496,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1528,7 @@
         <v>5983</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1560,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1592,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1624,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1656,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1688,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1720,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1785,7 +1752,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1784,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1816,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
